--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="2" r:id="rId1"/>
@@ -472,10 +472,6 @@
     <t>ALTER</t>
   </si>
   <si>
-    <t>incubtemps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tetR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,6 +493,10 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubtemp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1140,7 +1140,7 @@
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1186,13 +1186,13 @@
         <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1420,13 +1420,13 @@
         <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1504,7 +1504,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -1582,7 +1582,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -1608,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="5">
         <v>3</v>
@@ -1634,7 +1634,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -1654,13 +1654,13 @@
         <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -1686,7 +1686,7 @@
         <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="5">
         <v>3</v>
@@ -1764,7 +1764,7 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -1790,7 +1790,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="5">
         <v>3</v>
@@ -1816,7 +1816,7 @@
         <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="5">
         <v>3</v>
@@ -1842,7 +1842,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -1868,7 +1868,7 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
@@ -1894,7 +1894,7 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="5">
         <v>4</v>
@@ -1920,7 +1920,7 @@
         <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -2017,7 +2017,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2039,7 +2039,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2065,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="8.375" customWidth="1"/>
     <col min="11" max="11" width="31.625" customWidth="1"/>
   </cols>
@@ -2096,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>24</v>
@@ -2113,7 +2113,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -2148,7 +2148,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>450</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>600</v>
@@ -2218,7 +2218,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>750</v>
@@ -2253,7 +2253,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>900</v>
@@ -2288,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>1200</v>
@@ -2323,7 +2323,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>1500</v>
@@ -2358,7 +2358,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>1800</v>
@@ -2393,7 +2393,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>2100</v>
@@ -2428,7 +2428,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11">
         <v>300</v>
@@ -2463,7 +2463,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>450</v>
@@ -2498,7 +2498,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>750</v>
@@ -2533,7 +2533,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14">
         <v>900</v>
@@ -2568,7 +2568,7 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>2100</v>
@@ -2603,7 +2603,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -2638,7 +2638,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17">
         <v>300</v>
@@ -2673,7 +2673,7 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18">
         <v>450</v>
@@ -2708,7 +2708,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>600</v>
@@ -2743,7 +2743,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>750</v>
@@ -2778,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21">
         <v>900</v>
@@ -2813,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22">
         <v>1200</v>
@@ -2848,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23">
         <v>1500</v>
@@ -2883,7 +2883,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>1800</v>
@@ -2918,7 +2918,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25">
         <v>2100</v>
@@ -2953,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26">
         <v>150</v>
@@ -2988,7 +2988,7 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27">
         <v>300</v>
@@ -3023,7 +3023,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>450</v>
@@ -3058,7 +3058,7 @@
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29">
         <v>600</v>
@@ -3093,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30">
         <v>750</v>
@@ -3128,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31">
         <v>900</v>
@@ -3163,7 +3163,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32">
         <v>1200</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33">
         <v>1500</v>
@@ -3233,7 +3233,7 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34">
         <v>1800</v>
@@ -3268,7 +3268,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35">
         <v>2100</v>
@@ -3303,7 +3303,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36">
         <v>150</v>
@@ -3338,7 +3338,7 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37">
         <v>300</v>
@@ -3373,7 +3373,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38">
         <v>450</v>
@@ -3408,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39">
         <v>600</v>
@@ -3443,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40">
         <v>750</v>
@@ -3478,7 +3478,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41">
         <v>900</v>
@@ -3513,7 +3513,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42">
         <v>1200</v>
@@ -3548,7 +3548,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>1500</v>
@@ -3583,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44">
         <v>1800</v>
@@ -3618,7 +3618,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45">
         <v>2100</v>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>incubtemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSB3C5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1248,7 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1478,7 +1482,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1712,7 +1716,7 @@
         <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
@@ -1842,7 +1846,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -2055,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -489,10 +489,6 @@
   </si>
   <si>
     <t>repressor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,7 +1085,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1140,7 @@
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1170,7 +1166,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1196,7 +1192,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1222,7 +1218,7 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1248,7 +1244,7 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1274,7 +1270,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1300,7 +1296,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1326,7 +1322,7 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1352,7 +1348,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1378,7 +1374,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1404,7 +1400,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1430,7 +1426,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -1456,7 +1452,7 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -1482,7 +1478,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1508,7 +1504,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -1534,7 +1530,7 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -1560,7 +1556,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -1586,7 +1582,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -1612,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="5">
         <v>3</v>
@@ -1638,7 +1634,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -1664,7 +1660,7 @@
         <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -1690,7 +1686,7 @@
         <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -1716,7 +1712,7 @@
         <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
@@ -1742,7 +1738,7 @@
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="5">
         <v>3</v>
@@ -1768,7 +1764,7 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -1794,7 +1790,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27" s="5">
         <v>3</v>
@@ -1820,7 +1816,7 @@
         <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="5">
         <v>3</v>
@@ -1846,7 +1842,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -1872,7 +1868,7 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
@@ -1898,7 +1894,7 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" s="5">
         <v>4</v>
@@ -1924,7 +1920,7 @@
         <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -2100,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>24</v>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
